--- a/biology/Botanique/Leucobryum_glaucum/Leucobryum_glaucum.xlsx
+++ b/biology/Botanique/Leucobryum_glaucum/Leucobryum_glaucum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucobryum glaucum est une espèce de plantes bryophytes, commune dans les forêts acidiphiles. Elle est utilisée comme mousse décorative.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette mousse forme d'épais coussinets, bombés et circulaires. Le dessus est vert clair ou blanchâtre, le dessous est plutôt brun pâle. La tige de 1 à 12 cm porte des feuilles très serrées les unes contre les autres, minuscules (de 3 à 9 mm de longueur), pointues à leur extrémité. Le fruit est une capsule, difficile à observer, porté sur de longues soies au bout des tiges.</t>
@@ -542,7 +556,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 mousse boule</t>
@@ -573,9 +589,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette mousse dans les forêts acidiphiles septentrionales d'Amérique du Nord et d'Europe, particulièrement dans les zones de terre de bruyère et les forêts de conifères, ainsi que dans les prés humides[3] du nord de l'Europe centrale et de l'Europe de l'Est.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette mousse dans les forêts acidiphiles septentrionales d'Amérique du Nord et d'Europe, particulièrement dans les zones de terre de bruyère et les forêts de conifères, ainsi que dans les prés humides du nord de l'Europe centrale et de l'Europe de l'Est.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (14 avril 2019)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (14 avril 2019) :
 variété Leucobryum glaucum var. albidum (Brid. ex P. Beauv.) Cardot
-Selon Tropicos                                           (14 avril 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Leucobryum glaucum subsp. albidum (Brid. ex P. Beauv.) Dixon
 variété Leucobryum glaucum var. albidum (Brid. ex P. Beauv.) Cardot
 variété Leucobryum glaucum var. minus Sande Lac.
